--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/99511865/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/99511865/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.961887001991272</v>
+        <v>0.9846658706665039</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.97336345911026</v>
+        <v>0.9846295118331909</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5090011358261108</v>
+        <v>0.8485232591629028</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9761684536933899</v>
+        <v>0.9846577048301697</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9763683080673218</v>
+        <v>0.9846654534339905</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9761009812355042</v>
+        <v>0.984667956829071</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9753754138946533</v>
+        <v>0.9767886400222778</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9761009812355042</v>
+        <v>0.984667956829071</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4863019287586212</v>
+        <v>0.8212844729423523</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9765847325325012</v>
+        <v>0.98466956615448</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8362300395965576</v>
+        <v>0.9400794506072998</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.97585129737854</v>
+        <v>0.984643816947937</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9759003520011902</v>
+        <v>0.9846566319465637</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9762120842933655</v>
+        <v>0.9846515655517578</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.976164698600769</v>
+        <v>0.9846689105033875</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2458600103855133</v>
+        <v>0.4970559179782867</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9763450026512146</v>
+        <v>0.9846599102020264</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9762044548988342</v>
+        <v>0.9846721291542053</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.97566819190979</v>
+        <v>0.9846483469009399</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9759432673454285</v>
+        <v>0.9846618175506592</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9763920903205872</v>
+        <v>0.9846515655517578</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9765000343322754</v>
+        <v>0.984667956829071</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4863618612289429</v>
+        <v>0.8480780720710754</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2327164560556412</v>
+        <v>0.4976151585578918</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9756391644477844</v>
+        <v>0.9846636056900024</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9756054878234863</v>
+        <v>0.9846482276916504</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9761512875556946</v>
+        <v>0.9846509695053101</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.975966215133667</v>
+        <v>0.9846513271331787</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.976191520690918</v>
+        <v>0.9846732020378113</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5281739830970764</v>
+        <v>0.914348304271698</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8236138820648193</v>
+        <v>0.9408033490180969</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8306592106819153</v>
+        <v>0.9400045275688171</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9763811826705933</v>
+        <v>0.9846560955047607</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.832184374332428</v>
+        <v>0.9400491714477539</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9764352440834045</v>
+        <v>0.9846773147583008</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5778006315231323</v>
+        <v>0.938107430934906</v>
       </c>
     </row>
     <row r="40">
@@ -1547,14 +1547,14 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3345713317394257</v>
+        <v>0.908405601978302</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9763975143432617</v>
+        <v>0.9846746921539307</v>
       </c>
     </row>
     <row r="42">
@@ -1603,14 +1603,14 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5098006725311279</v>
+        <v>0.5189700126647949</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.512637734413147</v>
+        <v>0.9137877225875854</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8165975213050842</v>
+        <v>0.9401072263717651</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.5336366891860962</v>
+        <v>0.9138190150260925</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5367014408111572</v>
+        <v>0.9146939516067505</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4893087148666382</v>
+        <v>0.8470498323440552</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5320767164230347</v>
+        <v>0.914630651473999</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9763660430908203</v>
+        <v>0.9846686720848083</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5059434771537781</v>
+        <v>0.9137862324714661</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.4844086766242981</v>
+        <v>0.9137862324714661</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9758654832839966</v>
+        <v>0.9846278429031372</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5059434771537781</v>
+        <v>0.9137862324714661</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5084581971168518</v>
+        <v>0.9137288331985474</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9762885570526123</v>
+        <v>0.9846648573875427</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9761097431182861</v>
+        <v>0.98466557264328</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9766344428062439</v>
+        <v>0.9846765398979187</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.832452654838562</v>
+        <v>0.9398349523544312</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9762560725212097</v>
+        <v>0.9846804738044739</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9758275747299194</v>
+        <v>0.9846652150154114</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9762029647827148</v>
+        <v>0.9846641421318054</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9765204191207886</v>
+        <v>0.984667181968689</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8181855082511902</v>
+        <v>0.9399004578590393</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3940055668354034</v>
+        <v>0.7128584384918213</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8325844407081604</v>
+        <v>0.9398878216743469</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8325844407081604</v>
+        <v>0.9398878216743469</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8174047470092773</v>
+        <v>0.9398831129074097</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8325844407081604</v>
+        <v>0.9398878216743469</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.576940655708313</v>
+        <v>0.8364877700805664</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9763644337654114</v>
+        <v>0.9846543073654175</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7998039126396179</v>
+        <v>0.9399537444114685</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9751700758934021</v>
+        <v>0.9846448302268982</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8340722322463989</v>
+        <v>0.9400413036346436</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9759140610694885</v>
+        <v>0.9846652150154114</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9761419892311096</v>
+        <v>0.984662652015686</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8340722322463989</v>
+        <v>0.9400413036346436</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9759184122085571</v>
+        <v>0.9846514463424683</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8340722322463989</v>
+        <v>0.9400413036346436</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9764444828033447</v>
+        <v>0.9846605658531189</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8344263434410095</v>
+        <v>0.9400190711021423</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9758308529853821</v>
+        <v>0.9846565127372742</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8344263434410095</v>
+        <v>0.9400190711021423</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9748004078865051</v>
+        <v>0.9846357107162476</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9748004078865051</v>
+        <v>0.9846357107162476</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9765694141387939</v>
+        <v>0.984671413898468</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8366672992706299</v>
+        <v>0.940086305141449</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9763653874397278</v>
+        <v>0.9846171140670776</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8343824744224548</v>
+        <v>0.9400140047073364</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.975862979888916</v>
+        <v>0.9846473932266235</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9758829474449158</v>
+        <v>0.9846553802490234</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9758926033973694</v>
+        <v>0.9846569895744324</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9758852124214172</v>
+        <v>0.9846552610397339</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9758871793746948</v>
+        <v>0.9846579432487488</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9758732914924622</v>
+        <v>0.9846575856208801</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9758867025375366</v>
+        <v>0.9846587181091309</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9764825105667114</v>
+        <v>0.9846746921539307</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2527367174625397</v>
+        <v>0.5997865200042725</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.976213812828064</v>
+        <v>0.9846664667129517</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9756450653076172</v>
+        <v>0.9846582412719727</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9755871891975403</v>
+        <v>0.9846457839012146</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9764077663421631</v>
+        <v>0.9846595525741577</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.4811659157276154</v>
+        <v>0.8480837345123291</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9763753414154053</v>
+        <v>0.9036737084388733</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9761685729026794</v>
+        <v>0.9846381545066833</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5957141518592834</v>
+        <v>0.8361586928367615</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9756636619567871</v>
+        <v>0.984641969203949</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5178173184394836</v>
+        <v>0.913756787776947</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.4864785373210907</v>
+        <v>0.8480835556983948</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9757295250892639</v>
+        <v>0.9846625328063965</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5258570909500122</v>
+        <v>0.9143350720405579</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5158027410507202</v>
+        <v>0.9143888354301453</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.8378967046737671</v>
+        <v>0.9400006532669067</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9763550162315369</v>
+        <v>0.9846656322479248</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.8402246236801147</v>
+        <v>0.9397795796394348</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9726886749267578</v>
+        <v>0.9846263527870178</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9752694964408875</v>
+        <v>0.9846338629722595</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.4744038879871368</v>
+        <v>0.4179985523223877</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9760048985481262</v>
+        <v>0.9846664667129517</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5537779331207275</v>
+        <v>0.8365268707275391</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9762980937957764</v>
+        <v>0.98468416929245</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.5537779331207275</v>
+        <v>0.8365268707275391</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9762980937957764</v>
+        <v>0.98468416929245</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5537779331207275</v>
+        <v>0.8365268707275391</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.976273775100708</v>
+        <v>0.9846674799919128</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.480655312538147</v>
+        <v>0.8459283709526062</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9762692451477051</v>
+        <v>0.9846681952476501</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9755655527114868</v>
+        <v>0.9846594333648682</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9753960371017456</v>
+        <v>0.9846398830413818</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4395250976085663</v>
+        <v>0.8932855725288391</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9759830832481384</v>
+        <v>0.9846689105033875</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9760088920593262</v>
+        <v>0.9846423268318176</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9763779640197754</v>
+        <v>0.9846514463424683</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9705865979194641</v>
+        <v>0.984601616859436</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9762066006660461</v>
+        <v>0.9846580028533936</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9753643274307251</v>
+        <v>0.9846471548080444</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9752996563911438</v>
+        <v>0.9846549034118652</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9758686423301697</v>
+        <v>0.9846568703651428</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.514133095741272</v>
+        <v>0.844374418258667</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.8303161859512329</v>
+        <v>0.9399810433387756</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9760451316833496</v>
+        <v>0.9846615195274353</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.8303161859512329</v>
+        <v>0.9399810433387756</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9749611020088196</v>
+        <v>0.9846324920654297</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.576940655708313</v>
+        <v>0.8364877700805664</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9758093953132629</v>
+        <v>0.9846408367156982</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8353669047355652</v>
+        <v>0.9399234652519226</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.4200388193130493</v>
+        <v>0.8365687727928162</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.430986225605011</v>
+        <v>0.8480587005615234</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9765382409095764</v>
+        <v>0.9846667051315308</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.4891512393951416</v>
+        <v>0.8482030034065247</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9764580130577087</v>
+        <v>0.9846712350845337</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4867968559265137</v>
+        <v>0.8482547998428345</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9760289788246155</v>
+        <v>0.9846680760383606</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.4869662821292877</v>
+        <v>0.8482710123062134</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9761014580726624</v>
+        <v>0.9846663475036621</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8364664912223816</v>
+        <v>0.9398983716964722</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9756956696510315</v>
+        <v>0.9846473932266235</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9643039107322693</v>
+        <v>0.9237411618232727</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.975283682346344</v>
+        <v>0.9846590757369995</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.8324491381645203</v>
+        <v>0.9399745464324951</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9764853715896606</v>
+        <v>0.9846810102462769</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9747828841209412</v>
+        <v>0.9846571087837219</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.5293186902999878</v>
+        <v>0.9144083857536316</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.8339784145355225</v>
+        <v>0.9401799440383911</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5293186902999878</v>
+        <v>0.9144083857536316</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8370286822319031</v>
+        <v>0.9399328231811523</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9764562845230103</v>
+        <v>0.9846537709236145</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9753704071044922</v>
+        <v>0.9846375584602356</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9753595590591431</v>
+        <v>0.9846530556678772</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9753704071044922</v>
+        <v>0.9846375584602356</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9753704071044922</v>
+        <v>0.9846375584602356</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9753595590591431</v>
+        <v>0.9846530556678772</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9758356213569641</v>
+        <v>0.9846541285514832</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9760141968727112</v>
+        <v>0.9846363067626953</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9762092232704163</v>
+        <v>0.9846581220626831</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9763136506080627</v>
+        <v>0.9846646189689636</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9762663841247559</v>
+        <v>0.984660804271698</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.5779712796211243</v>
+        <v>0.8370705842971802</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.976581871509552</v>
+        <v>0.9846698045730591</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9765448570251465</v>
+        <v>0.9846755862236023</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9760881662368774</v>
+        <v>0.9846691489219666</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9760802984237671</v>
+        <v>0.9846612811088562</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9757591485977173</v>
+        <v>0.9846569895744324</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9758453965187073</v>
+        <v>0.9846686720848083</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9758140444755554</v>
+        <v>0.9846649765968323</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2474849969148636</v>
+        <v>0.5983238220214844</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9763525128364563</v>
+        <v>0.9846611618995667</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9760869145393372</v>
+        <v>0.9846627712249756</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4796787202358246</v>
+        <v>0.8365423083305359</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.5308418869972229</v>
+        <v>0.9146249294281006</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9765505194664001</v>
+        <v>0.9846649765968323</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9761741161346436</v>
+        <v>0.9846530556678772</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9761975407600403</v>
+        <v>0.9846636652946472</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9764015078544617</v>
+        <v>0.9846630096435547</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8360810875892639</v>
+        <v>0.939861536026001</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9763914942741394</v>
+        <v>0.9846711158752441</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9763960242271423</v>
+        <v>0.9846518039703369</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.976127564907074</v>
+        <v>0.9846549034118652</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5288023352622986</v>
+        <v>0.9144161939620972</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9760386347770691</v>
+        <v>0.9846668243408203</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9754671454429626</v>
+        <v>0.9846454262733459</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.2525413632392883</v>
+        <v>0.5990220904350281</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9751234650611877</v>
+        <v>0.9846442937850952</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.2379028350114822</v>
+        <v>0.4978742897510529</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9761906266212463</v>
+        <v>0.9846566319465637</v>
       </c>
     </row>
   </sheetData>
